--- a/data/trans_dic/P1416-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1416-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04354961346187358</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08900722459448292</v>
+        <v>0.08900722459448293</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.08464768330991175</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03518638404350564</v>
+        <v>0.03695873147172313</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02849690740731737</v>
+        <v>0.02933932982421194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03042427498953089</v>
+        <v>0.02934063399042567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06762934696545343</v>
+        <v>0.06850245013311729</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06593267583940697</v>
+        <v>0.06702359863951672</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04863588258655527</v>
+        <v>0.04946590345382788</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04102509895610804</v>
+        <v>0.0415228269045327</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1010968010166596</v>
+        <v>0.1014235023273518</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05439638737231007</v>
+        <v>0.05478645660514347</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04267739765732893</v>
+        <v>0.04184380583752521</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03900285128555424</v>
+        <v>0.03901292658236895</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09105103073158623</v>
+        <v>0.08992036005209042</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06814982895270284</v>
+        <v>0.07104349198244368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0607094918436231</v>
+        <v>0.06067829059762242</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05984421503074597</v>
+        <v>0.06254467778864939</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1181258820814665</v>
+        <v>0.1175224909136663</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1082596277866665</v>
+        <v>0.1101115253193329</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08731282104074728</v>
+        <v>0.08742545462255069</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07511926883334517</v>
+        <v>0.07646195055998661</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1413487342048914</v>
+        <v>0.1423245306828513</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08166690184022787</v>
+        <v>0.08142212175396929</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06733850494913893</v>
+        <v>0.06691038813330617</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.061742577998589</v>
+        <v>0.06340760218827436</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1212970431450977</v>
+        <v>0.1213781651899168</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05996918854897728</v>
+        <v>0.05950759185412393</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04437296273867146</v>
+        <v>0.04351833964383706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03236197136434096</v>
+        <v>0.03394904188820356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07383791981507475</v>
+        <v>0.07541816716203559</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07968906380110598</v>
+        <v>0.08088625861882326</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06272126103874144</v>
+        <v>0.06164767001328653</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07776867919330212</v>
+        <v>0.07715053744528629</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08940655714844423</v>
+        <v>0.09032163614254499</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07306394730815695</v>
+        <v>0.07433830581935674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0560414419334169</v>
+        <v>0.05756211988464966</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.058487604241312</v>
+        <v>0.05842580104007889</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08762832603309154</v>
+        <v>0.08739538394845558</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09564397509189498</v>
+        <v>0.09494097882511619</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07484061926945564</v>
+        <v>0.07403007045920112</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0600780178724824</v>
+        <v>0.05892706335894959</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1209896175373986</v>
+        <v>0.1184556143871603</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.118705819542054</v>
+        <v>0.1210981157564301</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09818501568169954</v>
+        <v>0.09773310410329258</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1137425990802079</v>
+        <v>0.1123667497808998</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1230589270038969</v>
+        <v>0.1214315796105402</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09889170823654647</v>
+        <v>0.09935544725387387</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07940892587263058</v>
+        <v>0.08086996405190112</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08078094399622454</v>
+        <v>0.08139727697631913</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1140022167996059</v>
+        <v>0.1140016960608601</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04246379064392632</v>
+        <v>0.04336265978059253</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03646452372920812</v>
+        <v>0.03765805876978998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02266132298579196</v>
+        <v>0.0226401343291731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09343861782262441</v>
+        <v>0.09327344416807448</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06897070557572596</v>
+        <v>0.07020288290143548</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04782606131457239</v>
+        <v>0.04782645772465966</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06377789296759534</v>
+        <v>0.06271599414644362</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1137687555119568</v>
+        <v>0.1136330864851438</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05998693616334833</v>
+        <v>0.0607327973882288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04652418253684806</v>
+        <v>0.0472568554786278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04778457616537921</v>
+        <v>0.04867053417383858</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1095276328144075</v>
+        <v>0.1096014359085983</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08065845531070653</v>
+        <v>0.08126439609197063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07374427128849033</v>
+        <v>0.07404900002945765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04934460736596931</v>
+        <v>0.05160209501679179</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1497928105452305</v>
+        <v>0.1467361893715436</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1128992032153887</v>
+        <v>0.1111470358881792</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08444969336528607</v>
+        <v>0.08411427369601934</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.102577011433842</v>
+        <v>0.1028974594244618</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1577448737917209</v>
+        <v>0.1570066667899935</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09063019952925717</v>
+        <v>0.08884223713621001</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07229572394637482</v>
+        <v>0.07387870479471224</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07300278919746138</v>
+        <v>0.07132597315347444</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1436498460617794</v>
+        <v>0.1441086821326468</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06967218428982243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08843170804464072</v>
+        <v>0.08843170804464073</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1062089992627949</v>
@@ -1105,7 +1105,7 @@
         <v>0.0745963945366266</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1069598393829069</v>
+        <v>0.106959839382907</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05976557536643157</v>
+        <v>0.06076645479730854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03787937004804606</v>
+        <v>0.03741842318228855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05428937501378487</v>
+        <v>0.05489621681649063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07064423579505337</v>
+        <v>0.07128260849652997</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08892109851761838</v>
+        <v>0.08838680424653537</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06266592426198767</v>
+        <v>0.06494679483369556</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06228216791382175</v>
+        <v>0.06354756586740416</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1058181196695579</v>
+        <v>0.1070919359068963</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07834023510531886</v>
+        <v>0.07932960006315723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05521440478970294</v>
+        <v>0.05614893590417886</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06394869744290461</v>
+        <v>0.06272271756316657</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09481987879271304</v>
+        <v>0.09382735347552412</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09352236783121652</v>
+        <v>0.09521021185843624</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06543850009507358</v>
+        <v>0.06538354915150468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08703995365642464</v>
+        <v>0.08731975613542564</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1103197872737867</v>
+        <v>0.1090206767310618</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1267503454348984</v>
+        <v>0.125793147529782</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09561061785361051</v>
+        <v>0.09925061547285453</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0985352928751328</v>
+        <v>0.09613881822095598</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1411745974179152</v>
+        <v>0.1429556688025992</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.104673885857121</v>
+        <v>0.1043919999962729</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07711908862128439</v>
+        <v>0.07835504733844152</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08828586650323347</v>
+        <v>0.0869958025971964</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1217855770794153</v>
+        <v>0.1217756864979296</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04933756809564291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09723153214343004</v>
+        <v>0.09723153214343003</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09588951205477066</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0435098820527838</v>
+        <v>0.04409917184942139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04174680470936292</v>
+        <v>0.04186507758721519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08702862900726986</v>
+        <v>0.08678672178550764</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06511952507811121</v>
+        <v>0.06465355223801444</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07061988369797076</v>
+        <v>0.07037897366956115</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1103929114332298</v>
+        <v>0.1106432249438359</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05681103674328739</v>
+        <v>0.05607113253403907</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05903944033177514</v>
+        <v>0.0588724850318107</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.101173605771423</v>
+        <v>0.1017011589876645</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05954961786880995</v>
+        <v>0.05909200078441039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05757502808004282</v>
+        <v>0.05700254670070513</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.109166393051504</v>
+        <v>0.1094681089141488</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08275147388935107</v>
+        <v>0.08261728667356021</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08872308701189194</v>
+        <v>0.08930994241980432</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1297848794768537</v>
+        <v>0.1294605370500311</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06880991841940987</v>
+        <v>0.06862126736390818</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0715917241276039</v>
+        <v>0.0707184017167687</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1161517756946403</v>
+        <v>0.1160045453312432</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24420</v>
+        <v>25650</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20018</v>
+        <v>20609</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20530</v>
+        <v>19799</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>46712</v>
+        <v>47315</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>45385</v>
+        <v>46136</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33902</v>
+        <v>34480</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27603</v>
+        <v>27938</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>73856</v>
+        <v>74095</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>75196</v>
+        <v>75735</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>59727</v>
+        <v>58560</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>52562</v>
+        <v>52575</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>129407</v>
+        <v>127800</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47297</v>
+        <v>49305</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42645</v>
+        <v>42623</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40383</v>
+        <v>42205</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81591</v>
+        <v>81174</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74521</v>
+        <v>75795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>60861</v>
+        <v>60940</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50543</v>
+        <v>51447</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>103262</v>
+        <v>103975</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>112893</v>
+        <v>112555</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>94240</v>
+        <v>93641</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>83207</v>
+        <v>85451</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>172394</v>
+        <v>172510</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>57678</v>
+        <v>57234</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45169</v>
+        <v>44299</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33088</v>
+        <v>34711</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77450</v>
+        <v>79107</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>77170</v>
+        <v>78330</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>64660</v>
+        <v>63553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>81106</v>
+        <v>80461</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>95388</v>
+        <v>96364</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>141028</v>
+        <v>143487</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>114821</v>
+        <v>117936</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>120797</v>
+        <v>120669</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>185406</v>
+        <v>184913</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>91990</v>
+        <v>91314</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>76184</v>
+        <v>75359</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61426</v>
+        <v>60249</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>126908</v>
+        <v>124250</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>114954</v>
+        <v>117271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>101220</v>
+        <v>100754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>118624</v>
+        <v>117189</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>131292</v>
+        <v>129556</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>190880</v>
+        <v>191775</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>162697</v>
+        <v>165691</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>166840</v>
+        <v>168113</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>241208</v>
+        <v>241207</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28812</v>
+        <v>29422</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27626</v>
+        <v>28531</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17212</v>
+        <v>17196</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74683</v>
+        <v>74551</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>47165</v>
+        <v>48008</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>37169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>50066</v>
+        <v>49233</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>91571</v>
+        <v>91462</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>81723</v>
+        <v>82739</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>71405</v>
+        <v>72530</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>73806</v>
+        <v>75175</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>175701</v>
+        <v>175819</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54727</v>
+        <v>55139</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>55870</v>
+        <v>56101</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37480</v>
+        <v>39194</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>119726</v>
+        <v>117283</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>77205</v>
+        <v>76007</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>65632</v>
+        <v>65371</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>80524</v>
+        <v>80776</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126967</v>
+        <v>126373</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>123470</v>
+        <v>121034</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>110959</v>
+        <v>113389</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>112757</v>
+        <v>110167</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>230438</v>
+        <v>231175</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>56312</v>
+        <v>57255</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>35900</v>
+        <v>35463</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>50900</v>
+        <v>51469</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>69798</v>
+        <v>70429</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>92355</v>
+        <v>91800</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65918</v>
+        <v>68318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65009</v>
+        <v>66330</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>118007</v>
+        <v>119427</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>155179</v>
+        <v>157139</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>110409</v>
+        <v>112278</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>126704</v>
+        <v>124275</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>199426</v>
+        <v>197339</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>88119</v>
+        <v>89709</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>62019</v>
+        <v>61967</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>81606</v>
+        <v>81868</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>108999</v>
+        <v>107715</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>131644</v>
+        <v>130650</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>100573</v>
+        <v>104402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>102849</v>
+        <v>100348</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>157436</v>
+        <v>159422</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>207342</v>
+        <v>206783</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>154210</v>
+        <v>156682</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>174925</v>
+        <v>172369</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>256141</v>
+        <v>256120</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>149054</v>
+        <v>151073</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>141703</v>
+        <v>142105</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>306944</v>
+        <v>306091</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>231632</v>
+        <v>229975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>250315</v>
+        <v>249461</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>410388</v>
+        <v>411319</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>396700</v>
+        <v>391533</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>409668</v>
+        <v>408510</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>732948</v>
+        <v>736770</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>204003</v>
+        <v>202435</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>195430</v>
+        <v>193487</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>385023</v>
+        <v>386087</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>294350</v>
+        <v>293872</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>314483</v>
+        <v>316563</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>482479</v>
+        <v>481273</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>480485</v>
+        <v>479168</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>496767</v>
+        <v>490707</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>841457</v>
+        <v>840390</v>
       </c>
     </row>
     <row r="24">
